--- a/nodes_source_analyses/energy/energy/energy_heat_flexibility_p2h_boiler_mt_electricity.xlsx
+++ b/nodes_source_analyses/energy/energy/energy_heat_flexibility_p2h_boiler_mt_electricity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roosdekok/code/etdataset/nodes_source_analyses/energy/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Github/etdataset/nodes_source_analyses/energy/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DB7DAD-F88D-2B4C-8C5A-BEED4169D016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BA4168-BFFE-6E45-A892-E7BAEB93F4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-22180" windowWidth="28800" windowHeight="16080" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-22180" windowWidth="28800" windowHeight="16080" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="154">
   <si>
     <t>Source</t>
   </si>
@@ -625,6 +625,9 @@
   </si>
   <si>
     <t>energy_heat_flexibility_p2h_boiler_ht_electricity.xlsx</t>
+  </si>
+  <si>
+    <t>Set to 1 because it is overwritten by temperature-dependent behaviour</t>
   </si>
 </sst>
 </file>
@@ -1986,6 +1989,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2013,8 +2018,6 @@
     <xf numFmtId="0" fontId="36" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="484">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3259,16 +3262,16 @@
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="20"/>
+    <col min="1" max="1" width="3.5" style="28" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="20" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="26" customFormat="1">
@@ -3299,10 +3302,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
-      <c r="B5" s="197" t="s">
+      <c r="B5" s="188" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="198" t="s">
+      <c r="C5" s="189" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3451,49 +3454,49 @@
   </sheetPr>
   <dimension ref="A2:K82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="31"/>
+    <col min="1" max="2" width="3.5" style="31" customWidth="1"/>
+    <col min="3" max="3" width="51.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="31" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="31" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="31" customWidth="1"/>
+    <col min="7" max="7" width="37.83203125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="31" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="31"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="190" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="190"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="192"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="191"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="193"/>
+      <c r="B3" s="193"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="195"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="191"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="193"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="195"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="194"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="195"/>
-      <c r="E5" s="196"/>
+      <c r="B5" s="196"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="198"/>
     </row>
     <row r="7" spans="1:11" ht="17" thickBot="1"/>
     <row r="8" spans="1:11">
@@ -3649,14 +3652,13 @@
         <v>2</v>
       </c>
       <c r="E16" s="144">
-        <f>'Research data'!H10</f>
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F16" s="87"/>
       <c r="G16" s="87"/>
       <c r="H16" s="87"/>
       <c r="I16" s="147" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="J16" s="146"/>
     </row>
@@ -4317,26 +4319,26 @@
       <selection activeCell="C14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
     <col min="2" max="2" width="3" style="33" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="33" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="33" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="33" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="33" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="33" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="33" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="33" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" style="33" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="33" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="33" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="33" customWidth="1"/>
-    <col min="13" max="13" width="2.42578125" style="33" customWidth="1"/>
-    <col min="14" max="14" width="37.28515625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="33" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="33" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="33" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="33" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" style="33" customWidth="1"/>
+    <col min="13" max="13" width="2.5" style="33" customWidth="1"/>
+    <col min="14" max="14" width="37.33203125" style="33" customWidth="1"/>
     <col min="15" max="15" width="11" style="33" customWidth="1"/>
-    <col min="16" max="16" width="2.42578125" style="33" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" style="33" customWidth="1"/>
-    <col min="18" max="16384" width="10.7109375" style="33"/>
+    <col min="16" max="16" width="2.5" style="33" customWidth="1"/>
+    <col min="17" max="17" width="22.5" style="33" customWidth="1"/>
+    <col min="18" max="16384" width="10.6640625" style="33"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="17" thickBot="1"/>
@@ -5132,18 +5134,18 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="44" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="44" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="44" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="44" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="49" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" style="49" customWidth="1"/>
-    <col min="10" max="10" width="98.42578125" style="44" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="44"/>
+    <col min="1" max="1" width="3.5" style="44" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="44" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="44" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="44" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="49" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="49" customWidth="1"/>
+    <col min="10" max="10" width="98.5" style="44" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
@@ -5408,18 +5410,18 @@
       <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="52" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="52" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="52" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="52" customWidth="1"/>
     <col min="4" max="4" width="4" style="52" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="52" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="52" customWidth="1"/>
-    <col min="7" max="13" width="10.7109375" style="52"/>
-    <col min="14" max="14" width="15.7109375" style="52" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="52"/>
-    <col min="16" max="16" width="54.7109375" style="52" customWidth="1"/>
-    <col min="17" max="16384" width="10.7109375" style="52"/>
+    <col min="5" max="5" width="13.1640625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" style="52" customWidth="1"/>
+    <col min="7" max="13" width="10.6640625" style="52"/>
+    <col min="14" max="14" width="15.6640625" style="52" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="52"/>
+    <col min="16" max="16" width="54.6640625" style="52" customWidth="1"/>
+    <col min="17" max="16384" width="10.6640625" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17" thickBot="1"/>
